--- a/pdfextractor/pdfs_extracted.xlsx
+++ b/pdfextractor/pdfs_extracted.xlsx
@@ -9,65 +9,6 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t xml:space="preserve">unique_files</t>
-  </si>
-  <si>
-    <t xml:space="preserve">('daycare' OR 'godzilla kills') AND ('health risk' OR 'disco')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">('laughter club' OR 'sad') AND ('touche' OR 'sarcasm riot')</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11-01civilrights.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7a_stanford_human_health_risk_childcare_jan_2015.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Appendix%2520E%2520-%2520Health%2520Risk%2520Assessment.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B3_CS_Appendix_B3_HRA_DSEIR.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bc_handbook.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">vulcan_daycare_society-_parent_handbook-_out_of_school_care_program__2_.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">welcome-to-little-raptor-daycare.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">8.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Consolidated_Financial_Statements_for_2015.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">in-tax-deloitte-customs-and-gst-interplay-flyer-noexp.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">independentauditorsreportonconsolidatedfs_bankinggroup_otpbanka_2017.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">independentauditorsreportonseparatefs_otpbanka-_final.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">samsung-a516-quick-reference-guide.pdf</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -110,18 +51,6 @@
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A1:C14" totalsRowCount="0" totalsRowShown="0">
-  <autoFilter ref="A1:C14"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="unique_files"/>
-    <tableColumn id="2" name="('daycare' OR 'godzilla kills') AND ('health risk' OR 'disco')"/>
-    <tableColumn id="3" name="('laughter club' OR 'sad') AND ('touche' OR 'sarcasm riot')"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -408,166 +337,8 @@
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>